--- a/SpiderHost/OrderThread/template.xlsx
+++ b/SpiderHost/OrderThread/template.xlsx
@@ -2,24 +2,43 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -44,14 +63,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -130,7 +150,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +184,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -342,12 +360,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>123.456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>